--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.97</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.33</v>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.54</v>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.97</v>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.13</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2503</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.54</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.97</v>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2961,14 +3048,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.33</v>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2977,14 +3086,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.97</v>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2993,13 +3124,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>3.44</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>2.13</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>4.54</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>3.97</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.33</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -600,6 +617,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +4146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3141,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
+++ b/数据整理/stocks/A股/科创板/688369-致远互联.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>8.640000000000001</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>3.44</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.13</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>4.54</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>3.97</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -616,7 +633,1639 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014558</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014559</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2514,7 +4163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3216,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4146,7 +5795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4430,7 +6079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4638,7 +6287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4806,136 +6455,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5762</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2528</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>